--- a/CETC/ExcelFile/faultDataTime.xlsx
+++ b/CETC/ExcelFile/faultDataTime.xlsx
@@ -16,25 +16,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产线ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>故障发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟库乱烟检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +139,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,7 +444,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -404,27 +460,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -437,11 +493,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -454,10 +510,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -471,11 +527,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -488,11 +544,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -505,11 +561,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -522,11 +578,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -539,11 +595,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -556,11 +612,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -573,11 +629,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11">
         <v>2</v>
